--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -703,22 +703,73 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
-        <v>10</v>
+      <c r="A10" s="11">
+        <v>43934</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9100</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>730</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>3277.7000000000003</v>
       </c>
       <c r="G10" s="10">
-        <f>SUM(G4:G9)</f>
-        <v>12539</v>
+        <f>SUM(F10,F11)</f>
+        <v>6120.8000000000011</v>
       </c>
       <c r="H10" s="10">
-        <f>SUM(H4:H9)</f>
-        <v>12539</v>
+        <v>6120.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9300</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>2843.1000000000004</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G4:G11)</f>
+        <v>18659.800000000003</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H4:H11)</f>
+        <v>18659.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -754,22 +754,124 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="A12" s="11">
+        <v>43955</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9480</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>380</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>1706.2</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>2751.1000000000004</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2751.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9730</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="5"/>
+        <v>1044.9000000000001</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>43985</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10070</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>590</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>2649.1</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>4252.8999999999996</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4252.8999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10390</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>660</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="7"/>
+        <v>1603.8000000000002</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G16" s="10">
         <f>SUM(G4:G11)</f>
         <v>18659.800000000003</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H16" s="10">
         <f>SUM(H4:H11)</f>
         <v>18659.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,22 +856,73 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="9" t="s">
-        <v>10</v>
+      <c r="A16" s="11">
+        <v>44021</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10630</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>560</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>2514.4</v>
       </c>
       <c r="G16" s="10">
-        <f>SUM(G4:G11)</f>
-        <v>18659.800000000003</v>
+        <f>SUM(F16,F17)</f>
+        <v>2648.05</v>
       </c>
       <c r="H16" s="10">
-        <f>SUM(H4:H11)</f>
-        <v>18659.8</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9"/>
+        <v>2648.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10445</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="9"/>
+        <v>133.65</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G4:G17)</f>
+        <v>28311.850000000002</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H4:H17)</f>
+        <v>28311.849999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <f t="shared" ref="F14:F17" si="7">D14*E14</f>
         <v>2649.1</v>
       </c>
       <c r="G14" s="10">
@@ -866,14 +866,14 @@
         <v>10630</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <f>C16-C14</f>
         <v>560</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <f t="shared" si="7"/>
         <v>2514.4</v>
       </c>
       <c r="G16" s="10">
@@ -893,36 +893,87 @@
         <v>10445</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
+        <f>C17-C15</f>
         <v>55</v>
       </c>
       <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>133.65</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
-        <v>10</v>
+      <c r="A18" s="11">
+        <v>44021</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11020</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18-C16</f>
+        <v>390</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>1836.9</v>
       </c>
       <c r="G18" s="10">
-        <f>SUM(G4:G17)</f>
-        <v>28311.850000000002</v>
+        <f>SUM(F18,F19)</f>
+        <v>2142.9</v>
       </c>
       <c r="H18" s="10">
-        <f>SUM(H4:H17)</f>
-        <v>28311.849999999995</v>
+        <v>2142.9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10565</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19-C17</f>
+        <v>120</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>30454.750000000004</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
+        <v>30454.749999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>44021</v>
+        <v>44047</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -958,22 +958,73 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="9" t="s">
-        <v>10</v>
+      <c r="A20" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20-C18</f>
+        <v>471</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
+        <v>2218.41</v>
       </c>
       <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>30454.750000000004</v>
+        <f>SUM(F20,F21)</f>
+        <v>2593.2599999999998</v>
       </c>
       <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>30454.749999999996</v>
+        <v>2593.2600000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21-C19</f>
+        <v>147</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="9"/>
+        <v>374.84999999999997</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(G4:G21)</f>
+        <v>33048.01</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H4:H21)</f>
+        <v>33048.009999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>10630</v>
       </c>
       <c r="D16" s="2">
-        <f>C16-C14</f>
+        <f t="shared" ref="D16:D23" si="8">C16-C14</f>
         <v>560</v>
       </c>
       <c r="E16" s="6">
@@ -893,7 +893,7 @@
         <v>10445</v>
       </c>
       <c r="D17" s="2">
-        <f>C17-C15</f>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="E17" s="2">
@@ -917,14 +917,14 @@
         <v>11020</v>
       </c>
       <c r="D18" s="2">
-        <f>C18-C16</f>
+        <f t="shared" si="8"/>
         <v>390</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
         <v>1836.9</v>
       </c>
       <c r="G18" s="10">
@@ -944,14 +944,14 @@
         <v>10565</v>
       </c>
       <c r="D19" s="2">
-        <f>C19-C17</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>306</v>
       </c>
       <c r="G19" s="10"/>
@@ -968,14 +968,14 @@
         <v>11491</v>
       </c>
       <c r="D20" s="2">
-        <f>C20-C18</f>
+        <f t="shared" si="8"/>
         <v>471</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
         <v>2218.41</v>
       </c>
       <c r="G20" s="10">
@@ -995,36 +995,87 @@
         <v>10712</v>
       </c>
       <c r="D21" s="2">
-        <f>C21-C19</f>
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>374.84999999999997</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="11">
+        <v>44106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11920</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="8"/>
+        <v>429</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="11">D22*E22</f>
+        <v>2020.59</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>2703.99</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2703.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10980</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="8"/>
+        <v>268</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="11"/>
+        <v>683.4</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G24" s="10">
         <f>SUM(G4:G21)</f>
         <v>33048.01</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H24" s="10">
         <f>SUM(H4:H21)</f>
         <v>33048.009999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1060,22 +1060,73 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="9" t="s">
+      <c r="A24" s="11">
+        <v>44137</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12362</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="12">C24-C22</f>
+        <v>442</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="13">D24*E24</f>
+        <v>2081.8200000000002</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>3537.87</v>
+      </c>
+      <c r="H24" s="10">
+        <v>3537.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>11551</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="12"/>
+        <v>571</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="13"/>
+        <v>1456.05</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G26" s="10">
         <f>SUM(G4:G21)</f>
         <v>33048.01</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H26" s="10">
         <f>SUM(H4:H21)</f>
         <v>33048.009999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -472,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,29 +519,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43803</v>
+        <v>44077</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>6860</v>
+        <v>11491</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>5760</v>
+        <v>10712</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -549,135 +549,135 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>43836</v>
+        <v>44106</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7460</v>
+        <v>11920</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C2</f>
-        <v>600</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>429</v>
       </c>
       <c r="E4" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>2694</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>2020.59</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>4492.2</v>
+        <v>2703.99</v>
       </c>
       <c r="H4" s="10">
-        <v>4492.2</v>
+        <v>2703.99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>6500</v>
+        <v>10980</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D9" si="1">C5-C3</f>
-        <v>740</v>
+        <f t="shared" si="0"/>
+        <v>268</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>1798.2</v>
+        <f t="shared" si="1"/>
+        <v>683.4</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>43863</v>
+        <v>44137</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>7920</v>
+        <v>12362</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>460</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>442</v>
       </c>
       <c r="E6" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>2065.4</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>2081.8200000000002</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3887.9000000000005</v>
+        <v>3537.87</v>
       </c>
       <c r="H6" s="10">
-        <v>3887.9</v>
+        <v>3537.87</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7250</v>
+        <v>11551</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>750</v>
+        <f t="shared" si="2"/>
+        <v>571</v>
       </c>
       <c r="E7" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>1822.5000000000002</v>
+        <f t="shared" si="3"/>
+        <v>1456.05</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>43894</v>
+        <v>44167</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>8370</v>
+        <v>12890</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>450</v>
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>528</v>
       </c>
       <c r="E8" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>2020.5</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>2486.88</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>4158.8999999999996</v>
+        <v>4600.83</v>
       </c>
       <c r="H8" s="10">
-        <v>4158.8999999999996</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,447 +686,39 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>8130</v>
+        <v>12380</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>880</v>
+        <f t="shared" si="4"/>
+        <v>829</v>
       </c>
       <c r="E9" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>2138.4</v>
+        <f t="shared" si="5"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>43934</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G2:G3)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>9100</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
-        <v>730</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
-        <v>3277.7000000000003</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>6120.8000000000011</v>
-      </c>
       <c r="H10" s="10">
-        <v>6120.8</v>
+        <f>SUM(H2:H3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9300</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>1170</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>2843.1000000000004</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>43955</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9480</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>380</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>1706.2</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>2751.1000000000004</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2751.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9730</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="4"/>
-        <v>430</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="5"/>
-        <v>1044.9000000000001</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>43985</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>10070</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
-        <v>590</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F17" si="7">D14*E14</f>
-        <v>2649.1</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>4252.8999999999996</v>
-      </c>
-      <c r="H14" s="10">
-        <v>4252.8999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10390</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>660</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>1603.8000000000002</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>44021</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10630</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D23" si="8">C16-C14</f>
-        <v>560</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="7"/>
-        <v>2514.4</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>2648.05</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2648.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10445</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="7"/>
-        <v>133.65</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>44047</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>11020</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="8"/>
-        <v>390</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
-        <v>1836.9</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>2142.9</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2142.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10565</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="9"/>
-        <v>306</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>44077</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="8"/>
-        <v>471</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
-        <v>2218.41</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>2593.2599999999998</v>
-      </c>
-      <c r="H20" s="10">
-        <v>2593.2600000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="8"/>
-        <v>147</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="10"/>
-        <v>374.84999999999997</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>44106</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>11920</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="8"/>
-        <v>429</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="11">D22*E22</f>
-        <v>2020.59</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(F22,F23)</f>
-        <v>2703.99</v>
-      </c>
-      <c r="H22" s="10">
-        <v>2703.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10980</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="8"/>
-        <v>268</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="11"/>
-        <v>683.4</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>44137</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>12362</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="12">C24-C22</f>
-        <v>442</v>
-      </c>
-      <c r="E24" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" si="13">D24*E24</f>
-        <v>2081.8200000000002</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(F24,F25)</f>
-        <v>3537.87</v>
-      </c>
-      <c r="H24" s="10">
-        <v>3537.87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>11551</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="12"/>
-        <v>571</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="13"/>
-        <v>1456.05</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f>SUM(G4:G21)</f>
-        <v>33048.01</v>
-      </c>
-      <c r="H26" s="10">
-        <f>SUM(H4:H21)</f>
-        <v>33048.009999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,12 +88,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +169,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,20 +529,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>44077</v>
+      <c r="A2" s="12">
+        <v>44200</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+        <v>13590</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-C4</f>
+        <v>700</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>3297</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM(F2,F3)</f>
+        <v>6000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>6000</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -541,41 +563,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
+        <v>13440</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D9" si="1">C3-C5</f>
+        <v>1060</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>2703</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>44106</v>
+        <v>44167</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11920</v>
+        <v>12890</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
-        <v>429</v>
+        <f t="shared" si="1"/>
+        <v>528</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2020.59</v>
+        <f t="shared" ref="F4:F9" si="2">D4*E4</f>
+        <v>2486.88</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>2703.99</v>
+        <v>4600.83</v>
       </c>
       <c r="H4" s="10">
-        <v>2703.99</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,18 +614,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>10980</v>
+        <v>12380</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>268</v>
+        <f t="shared" si="1"/>
+        <v>829</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>683.4</v>
+        <f t="shared" si="2"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -611,14 +641,14 @@
         <v>12362</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <f t="shared" si="2"/>
         <v>2081.8200000000002</v>
       </c>
       <c r="G6" s="10">
@@ -638,14 +668,14 @@
         <v>11551</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>571</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1456.05</v>
       </c>
       <c r="G7" s="10"/>
@@ -653,31 +683,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>44167</v>
+        <v>44106</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>12890</v>
+        <v>11920</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
-        <v>528</v>
+        <f t="shared" si="1"/>
+        <v>429</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>2486.88</v>
+        <f t="shared" si="2"/>
+        <v>2020.59</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>4600.83</v>
+        <v>2703.99</v>
       </c>
       <c r="H8" s="10">
-        <v>4600.83</v>
+        <v>2703.99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,44 +716,74 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>12380</v>
+        <v>10980</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>829</v>
+        <f t="shared" si="1"/>
+        <v>268</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
-        <v>2113.9499999999998</v>
+        <f t="shared" si="2"/>
+        <v>683.4</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(G2:G3)</f>
+      <c r="A10" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="10">
-        <f>SUM(H2:H3)</f>
-        <v>0</v>
-      </c>
+      <c r="C10" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G2:G10)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H2:H10)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -97,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,135 +528,135 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44200</v>
+        <v>44288</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13590</v>
+        <v>15640</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>3297</v>
+        <v>2731.8</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>6000</v>
+        <v>5205.3</v>
       </c>
       <c r="H2" s="10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5205.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>13440</v>
+        <v>16430</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" si="1">C3-C5</f>
-        <v>1060</v>
+        <f t="shared" ref="D3" si="1">C3-C5</f>
+        <v>970</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>2703</v>
+        <v>2473.5</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>44167</v>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44229</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>12890</v>
+        <v>15060</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>528</v>
+        <f>C4-C6</f>
+        <v>720</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="2">D4*E4</f>
-        <v>2486.88</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>3391.2</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>4600.83</v>
+        <v>6017.7</v>
       </c>
       <c r="H4" s="10">
-        <v>4600.83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6017.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>12380</v>
+        <v>15460</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>829</v>
+        <f t="shared" ref="D5" si="3">C5-C7</f>
+        <v>1030</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>2113.9499999999998</v>
+        <v>2626.5</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>44137</v>
+      <c r="A6" s="12">
+        <v>44229</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>12362</v>
+        <v>14340</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>442</v>
+        <f>C6-C8</f>
+        <v>750</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
-        <v>2081.8200000000002</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>3532.5</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3537.87</v>
+        <v>6057</v>
       </c>
       <c r="H6" s="10">
-        <v>3537.87</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,49 +665,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>11551</v>
+        <v>14430</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>571</v>
+        <f t="shared" ref="D7" si="5">C7-C9</f>
+        <v>990</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>1456.05</v>
+        <f t="shared" si="4"/>
+        <v>2524.5</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>44106</v>
+      <c r="A8" s="12">
+        <v>44200</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>11920</v>
+        <v>13590</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>429</v>
+        <f>C8-C10</f>
+        <v>700</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>2020.59</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>3297</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>2703.99</v>
+        <v>6000</v>
       </c>
       <c r="H8" s="10">
-        <v>2703.99</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,37 +716,50 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>10980</v>
+        <v>13440</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>268</v>
+        <f t="shared" ref="D9:D15" si="7">C9-C11</f>
+        <v>1060</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>683.4</v>
+        <f t="shared" si="6"/>
+        <v>2703</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>44077</v>
+        <v>44167</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+        <v>12890</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="7"/>
+        <v>528</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F15" si="8">D10*E10</f>
+        <v>2486.88</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>4600.83</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4600.83</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -754,31 +767,171 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
+        <v>12380</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="7"/>
+        <v>829</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="8"/>
+        <v>2113.9499999999998</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
-        <v>10</v>
+      <c r="A12" s="11">
+        <v>44137</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12362</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="7"/>
+        <v>442</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="8"/>
+        <v>2081.8200000000002</v>
       </c>
       <c r="G12" s="10">
-        <f>SUM(G2:G10)</f>
-        <v>16842.690000000002</v>
+        <f>SUM(F12,F13)</f>
+        <v>3537.87</v>
       </c>
       <c r="H12" s="10">
-        <f>SUM(H2:H10)</f>
-        <v>16842.690000000002</v>
+        <v>3537.87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11551</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="7"/>
+        <v>571</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>1456.05</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>44106</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11920</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="7"/>
+        <v>429</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="8"/>
+        <v>2020.59</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>2703.99</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2703.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10980</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>268</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>683.4</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G8:G16)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H8:H16)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,31 +530,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>15640</v>
+        <v>16140</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2731.8</v>
+        <v>2355</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>5205.3</v>
+        <v>4446</v>
       </c>
       <c r="H2" s="10">
-        <v>5205.3</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,49 +563,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>16430</v>
+        <v>17250</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>2473.5</v>
+        <v>2091</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44229</v>
+        <v>44288</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15060</v>
+        <v>15640</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>3391.2</v>
+        <v>2731.8</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>6017.7</v>
+        <v>5205.3</v>
       </c>
       <c r="H4" s="10">
-        <v>6017.7</v>
+        <v>5205.3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,18 +614,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>15460</v>
+        <v>16430</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>1030</v>
+        <v>970</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>2626.5</v>
+        <v>2473.5</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -638,25 +638,25 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>14340</v>
+        <v>15060</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>3532.5</v>
+        <v>3391.2</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>6057</v>
+        <v>6017.7</v>
       </c>
       <c r="H6" s="10">
-        <v>6057</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,49 +665,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>14430</v>
+        <v>15460</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>2524.5</v>
+        <v>2626.5</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>13590</v>
+        <v>14340</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>3297</v>
+        <v>3532.5</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>6000</v>
+        <v>6057</v>
       </c>
       <c r="H8" s="10">
-        <v>6000</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,49 +716,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>13440</v>
+        <v>14430</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D15" si="7">C9-C11</f>
-        <v>1060</v>
+        <f t="shared" ref="D9" si="7">C9-C11</f>
+        <v>990</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>2703</v>
+        <v>2524.5</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>44167</v>
+      <c r="A10" s="12">
+        <v>44200</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>12890</v>
+        <v>13590</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="7"/>
-        <v>528</v>
+        <f>C10-C12</f>
+        <v>700</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F15" si="8">D10*E10</f>
-        <v>2486.88</v>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>3297</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>4600.83</v>
+        <v>6000</v>
       </c>
       <c r="H10" s="10">
-        <v>4600.83</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,49 +767,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>12380</v>
+        <v>13440</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="7"/>
-        <v>829</v>
+        <f t="shared" ref="D11:D17" si="9">C11-C13</f>
+        <v>1060</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="8"/>
-        <v>2113.9499999999998</v>
+        <v>2703</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>12362</v>
+        <v>12890</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="7"/>
-        <v>442</v>
+        <f t="shared" si="9"/>
+        <v>528</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="8"/>
-        <v>2081.8200000000002</v>
+        <f t="shared" ref="F12:F17" si="10">D12*E12</f>
+        <v>2486.88</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>3537.87</v>
+        <v>4600.83</v>
       </c>
       <c r="H12" s="10">
-        <v>3537.87</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,49 +818,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>11551</v>
+        <v>12380</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="7"/>
-        <v>571</v>
+        <f t="shared" si="9"/>
+        <v>829</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>1456.05</v>
+        <f t="shared" si="10"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>11920</v>
+        <v>12362</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>429</v>
+        <f t="shared" si="9"/>
+        <v>442</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="8"/>
-        <v>2020.59</v>
+        <f t="shared" si="10"/>
+        <v>2081.8200000000002</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>2703.99</v>
+        <v>3537.87</v>
       </c>
       <c r="H14" s="10">
-        <v>2703.99</v>
+        <v>3537.87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,37 +869,50 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>10980</v>
+        <v>11551</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>268</v>
+        <f t="shared" si="9"/>
+        <v>571</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="8"/>
-        <v>683.4</v>
+        <f t="shared" si="10"/>
+        <v>1456.05</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>44077</v>
+        <v>44106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+        <v>11920</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="9"/>
+        <v>429</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="10"/>
+        <v>2020.59</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>2703.99</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2703.99</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -907,31 +920,69 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8"/>
+        <v>10980</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
+        <v>268</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="10"/>
+        <v>683.4</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(G8:G16)</f>
-        <v>16842.690000000002</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H8:H16)</f>
-        <v>16842.690000000002</v>
-      </c>
+      <c r="A18" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(G10:G18)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H10:H18)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,31 +530,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44320</v>
+        <v>44349</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>16140</v>
+        <v>16735</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2355</v>
+        <v>2802.45</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>4446</v>
+        <v>3758.7</v>
       </c>
       <c r="H2" s="10">
-        <v>4446</v>
+        <v>3758.7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,49 +563,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>17250</v>
+        <v>17625</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>820</v>
+        <v>375</v>
       </c>
       <c r="E3" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>2091</v>
+        <v>956.24999999999989</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15640</v>
+        <v>16140</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>2731.8</v>
+        <v>2355</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>5205.3</v>
+        <v>4446</v>
       </c>
       <c r="H4" s="10">
-        <v>5205.3</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,49 +614,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>16430</v>
+        <v>17250</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="E5" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>2473.5</v>
+        <v>2091</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44229</v>
+        <v>44288</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>15060</v>
+        <v>15640</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>3391.2</v>
+        <v>2731.8</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>6017.7</v>
+        <v>5205.3</v>
       </c>
       <c r="H6" s="10">
-        <v>6017.7</v>
+        <v>5205.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,18 +665,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>15460</v>
+        <v>16430</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>1030</v>
+        <v>970</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>2626.5</v>
+        <v>2473.5</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -689,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>14340</v>
+        <v>15060</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>3532.5</v>
+        <v>3391.2</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>6057</v>
+        <v>6017.7</v>
       </c>
       <c r="H8" s="10">
-        <v>6057</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,49 +716,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>14430</v>
+        <v>15460</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>2524.5</v>
+        <v>2626.5</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>13590</v>
+        <v>14340</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>3297</v>
+        <v>3532.5</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>6000</v>
+        <v>6057</v>
       </c>
       <c r="H10" s="10">
-        <v>6000</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,49 +767,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>13440</v>
+        <v>14430</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D17" si="9">C11-C13</f>
-        <v>1060</v>
+        <f t="shared" ref="D11" si="9">C11-C13</f>
+        <v>990</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="8"/>
-        <v>2703</v>
+        <v>2524.5</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>44167</v>
+      <c r="A12" s="12">
+        <v>44200</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>12890</v>
+        <v>13590</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="9"/>
-        <v>528</v>
+        <f>C12-C14</f>
+        <v>700</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F17" si="10">D12*E12</f>
-        <v>2486.88</v>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
+        <v>3297</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>4600.83</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="10">
-        <v>4600.83</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,49 +818,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>12380</v>
+        <v>13440</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="9"/>
-        <v>829</v>
+        <f t="shared" ref="D13:D19" si="11">C13-C15</f>
+        <v>1060</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="10"/>
-        <v>2113.9499999999998</v>
+        <v>2703</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>12362</v>
+        <v>12890</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="9"/>
-        <v>442</v>
+        <f t="shared" si="11"/>
+        <v>528</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="10"/>
-        <v>2081.8200000000002</v>
+        <f t="shared" ref="F14:F19" si="12">D14*E14</f>
+        <v>2486.88</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>3537.87</v>
+        <v>4600.83</v>
       </c>
       <c r="H14" s="10">
-        <v>3537.87</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,49 +869,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>11551</v>
+        <v>12380</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="9"/>
-        <v>571</v>
+        <f t="shared" si="11"/>
+        <v>829</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="10"/>
-        <v>1456.05</v>
+        <f t="shared" si="12"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>11920</v>
+        <v>12362</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="9"/>
-        <v>429</v>
+        <f t="shared" si="11"/>
+        <v>442</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="10"/>
-        <v>2020.59</v>
+        <f t="shared" si="12"/>
+        <v>2081.8200000000002</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>2703.99</v>
+        <v>3537.87</v>
       </c>
       <c r="H16" s="10">
-        <v>2703.99</v>
+        <v>3537.87</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,37 +920,50 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>10980</v>
+        <v>11551</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>268</v>
+        <f t="shared" si="11"/>
+        <v>571</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="10"/>
-        <v>683.4</v>
+        <f t="shared" si="12"/>
+        <v>1456.05</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>44077</v>
+        <v>44106</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+        <v>11920</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="11"/>
+        <v>429</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="12"/>
+        <v>2020.59</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>2703.99</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2703.99</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -958,31 +971,69 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="8"/>
+        <v>10980</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="12"/>
+        <v>683.4</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(G10:G18)</f>
-        <v>16842.690000000002</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H10:H18)</f>
-        <v>16842.690000000002</v>
-      </c>
+      <c r="A20" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(G12:G20)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H12:H20)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,31 +530,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44349</v>
+        <v>44441</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>16735</v>
+        <v>17915</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="E2" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2802.45</v>
+        <v>2728</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>3758.7</v>
+        <v>3237.2</v>
       </c>
       <c r="H2" s="10">
-        <v>3758.7</v>
+        <v>3237.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,49 +563,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>17625</v>
+        <v>17910</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="E3" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>956.24999999999989</v>
+        <v>509.20000000000005</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44320</v>
+        <v>44411</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>16140</v>
+        <v>17365</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="E4" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>2355</v>
+        <v>3124.8</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>4446</v>
+        <v>3379.4</v>
       </c>
       <c r="H4" s="10">
-        <v>4446</v>
+        <v>3379.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,49 +614,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>17250</v>
+        <v>17720</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>820</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>2091</v>
+        <v>254.60000000000002</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44288</v>
+        <v>44349</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>15640</v>
+        <v>16735</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>2731.8</v>
+        <v>2802.45</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>5205.3</v>
+        <v>3758.7</v>
       </c>
       <c r="H6" s="10">
-        <v>5205.3</v>
+        <v>3758.7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,49 +665,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>16430</v>
+        <v>17625</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>970</v>
+        <v>375</v>
       </c>
       <c r="E7" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>2473.5</v>
+        <v>956.24999999999989</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44229</v>
+        <v>44320</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>15060</v>
+        <v>16140</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>3391.2</v>
+        <v>2355</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>6017.7</v>
+        <v>4446</v>
       </c>
       <c r="H8" s="10">
-        <v>6017.7</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,49 +716,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>15460</v>
+        <v>17250</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>1030</v>
+        <v>820</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>2626.5</v>
+        <v>2091</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44229</v>
+        <v>44288</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>14340</v>
+        <v>15640</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>3532.5</v>
+        <v>2731.8</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>6057</v>
+        <v>5205.3</v>
       </c>
       <c r="H10" s="10">
-        <v>6057</v>
+        <v>5205.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,49 +767,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>14430</v>
+        <v>16430</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="8"/>
-        <v>2524.5</v>
+        <v>2473.5</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>13590</v>
+        <v>15060</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>3297</v>
+        <v>3391.2</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>6000</v>
+        <v>6017.7</v>
       </c>
       <c r="H12" s="10">
-        <v>6000</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,49 +818,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>13440</v>
+        <v>15460</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D19" si="11">C13-C15</f>
-        <v>1060</v>
+        <f t="shared" ref="D13" si="11">C13-C15</f>
+        <v>1030</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="10"/>
-        <v>2703</v>
+        <v>2626.5</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>44167</v>
+      <c r="A14" s="12">
+        <v>44229</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>12890</v>
+        <v>14340</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="11"/>
-        <v>528</v>
+        <f>C14-C16</f>
+        <v>750</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F19" si="12">D14*E14</f>
-        <v>2486.88</v>
+        <f t="shared" ref="F14:F15" si="12">D14*E14</f>
+        <v>3532.5</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>4600.83</v>
+        <v>6057</v>
       </c>
       <c r="H14" s="10">
-        <v>4600.83</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,49 +869,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>12380</v>
+        <v>14430</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="11"/>
-        <v>829</v>
+        <f t="shared" ref="D15" si="13">C15-C17</f>
+        <v>990</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="12"/>
-        <v>2113.9499999999998</v>
+        <v>2524.5</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>44137</v>
+      <c r="A16" s="12">
+        <v>44200</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>12362</v>
+        <v>13590</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="11"/>
-        <v>442</v>
+        <f>C16-C18</f>
+        <v>700</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="12"/>
-        <v>2081.8200000000002</v>
+        <f t="shared" ref="F16:F17" si="14">D16*E16</f>
+        <v>3297</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>3537.87</v>
+        <v>6000</v>
       </c>
       <c r="H16" s="10">
-        <v>3537.87</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,49 +920,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>11551</v>
+        <v>13440</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="11"/>
-        <v>571</v>
+        <f t="shared" ref="D17:D23" si="15">C17-C19</f>
+        <v>1060</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="12"/>
-        <v>1456.05</v>
+        <f t="shared" si="14"/>
+        <v>2703</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>44106</v>
+        <v>44167</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>11920</v>
+        <v>12890</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="11"/>
-        <v>429</v>
+        <f t="shared" si="15"/>
+        <v>528</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="12"/>
-        <v>2020.59</v>
+        <f t="shared" ref="F18:F23" si="16">D18*E18</f>
+        <v>2486.88</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>2703.99</v>
+        <v>4600.83</v>
       </c>
       <c r="H18" s="10">
-        <v>2703.99</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,37 +971,50 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>10980</v>
+        <v>12380</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="11"/>
-        <v>268</v>
+        <f t="shared" si="15"/>
+        <v>829</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="12"/>
-        <v>683.4</v>
+        <f t="shared" si="16"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>44077</v>
+        <v>44137</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+        <v>12362</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="15"/>
+        <v>442</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="16"/>
+        <v>2081.8200000000002</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>3537.87</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3537.87</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1009,31 +1022,120 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="8"/>
+        <v>11551</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="15"/>
+        <v>571</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="16"/>
+        <v>1456.05</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="9" t="s">
-        <v>10</v>
+      <c r="A22" s="11">
+        <v>44106</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11920</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="15"/>
+        <v>429</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="16"/>
+        <v>2020.59</v>
       </c>
       <c r="G22" s="10">
-        <f>SUM(G12:G20)</f>
-        <v>16842.690000000002</v>
+        <f>SUM(F22,F23)</f>
+        <v>2703.99</v>
       </c>
       <c r="H22" s="10">
-        <f>SUM(H12:H20)</f>
-        <v>16842.690000000002</v>
+        <v>2703.99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10980</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="15"/>
+        <v>268</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="16"/>
+        <v>683.4</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(G16:G24)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H16:H24)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,31 +530,31 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44441</v>
+        <v>44473</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>17915</v>
+        <v>18545</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>2728</v>
+        <v>3124.8</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>3237.2</v>
+        <v>4491.6000000000004</v>
       </c>
       <c r="H2" s="10">
-        <v>3237.2</v>
+        <v>4491.6000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,49 +563,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>17910</v>
+        <v>18420</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>190</v>
+        <v>510</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>509.20000000000005</v>
+        <v>1366.8000000000002</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44411</v>
+        <v>44441</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>17365</v>
+        <v>17915</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>630</v>
+        <v>550</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>3124.8</v>
+        <v>2728</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>3379.4</v>
+        <v>3237.2</v>
       </c>
       <c r="H4" s="10">
-        <v>3379.4</v>
+        <v>3237.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,49 +614,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>17720</v>
+        <v>17910</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>254.60000000000002</v>
+        <v>509.20000000000005</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44349</v>
+        <v>44411</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>16735</v>
+        <v>17365</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="E6" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>2802.45</v>
+        <v>3124.8</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3758.7</v>
+        <v>3379.4</v>
       </c>
       <c r="H6" s="10">
-        <v>3758.7</v>
+        <v>3379.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,49 +665,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>17625</v>
+        <v>17720</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>375</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>956.24999999999989</v>
+        <v>254.60000000000002</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44320</v>
+        <v>44349</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>16140</v>
+        <v>16735</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>2355</v>
+        <v>2802.45</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>4446</v>
+        <v>3758.7</v>
       </c>
       <c r="H8" s="10">
-        <v>4446</v>
+        <v>3758.7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,49 +716,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>17250</v>
+        <v>17625</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>820</v>
+        <v>375</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>2091</v>
+        <v>956.24999999999989</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>15640</v>
+        <v>16140</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>2731.8</v>
+        <v>2355</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>5205.3</v>
+        <v>4446</v>
       </c>
       <c r="H10" s="10">
-        <v>5205.3</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,49 +767,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>16430</v>
+        <v>17250</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="E11" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="8"/>
-        <v>2473.5</v>
+        <v>2091</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44229</v>
+        <v>44288</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>15060</v>
+        <v>15640</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>3391.2</v>
+        <v>2731.8</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>6017.7</v>
+        <v>5205.3</v>
       </c>
       <c r="H12" s="10">
-        <v>6017.7</v>
+        <v>5205.3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,18 +818,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>15460</v>
+        <v>16430</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>1030</v>
+        <v>970</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="10"/>
-        <v>2626.5</v>
+        <v>2473.5</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -842,25 +842,25 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>14340</v>
+        <v>15060</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>3532.5</v>
+        <v>3391.2</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>6057</v>
+        <v>6017.7</v>
       </c>
       <c r="H14" s="10">
-        <v>6057</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,49 +869,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>14430</v>
+        <v>15460</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="12"/>
-        <v>2524.5</v>
+        <v>2626.5</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>13590</v>
+        <v>14340</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>3297</v>
+        <v>3532.5</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>6000</v>
+        <v>6057</v>
       </c>
       <c r="H16" s="10">
-        <v>6000</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,49 +920,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>13440</v>
+        <v>14430</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:D23" si="15">C17-C19</f>
-        <v>1060</v>
+        <f t="shared" ref="D17" si="15">C17-C19</f>
+        <v>990</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="14"/>
-        <v>2703</v>
+        <v>2524.5</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>44167</v>
+      <c r="A18" s="12">
+        <v>44200</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>12890</v>
+        <v>13590</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="15"/>
-        <v>528</v>
+        <f>C18-C20</f>
+        <v>700</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F23" si="16">D18*E18</f>
-        <v>2486.88</v>
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>3297</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>4600.83</v>
+        <v>6000</v>
       </c>
       <c r="H18" s="10">
-        <v>4600.83</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,49 +971,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>12380</v>
+        <v>13440</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="15"/>
-        <v>829</v>
+        <f t="shared" ref="D19:D25" si="17">C19-C21</f>
+        <v>1060</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="16"/>
-        <v>2113.9499999999998</v>
+        <v>2703</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>12362</v>
+        <v>12890</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="15"/>
-        <v>442</v>
+        <f t="shared" si="17"/>
+        <v>528</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="16"/>
-        <v>2081.8200000000002</v>
+        <f t="shared" ref="F20:F25" si="18">D20*E20</f>
+        <v>2486.88</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>3537.87</v>
+        <v>4600.83</v>
       </c>
       <c r="H20" s="10">
-        <v>3537.87</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,49 +1022,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>11551</v>
+        <v>12380</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="15"/>
-        <v>571</v>
+        <f t="shared" si="17"/>
+        <v>829</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="16"/>
-        <v>1456.05</v>
+        <f t="shared" si="18"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>11920</v>
+        <v>12362</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="15"/>
-        <v>429</v>
+        <f t="shared" si="17"/>
+        <v>442</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="16"/>
-        <v>2020.59</v>
+        <f t="shared" si="18"/>
+        <v>2081.8200000000002</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>2703.99</v>
+        <v>3537.87</v>
       </c>
       <c r="H22" s="10">
-        <v>2703.99</v>
+        <v>3537.87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,37 +1073,50 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>10980</v>
+        <v>11551</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="15"/>
-        <v>268</v>
+        <f t="shared" si="17"/>
+        <v>571</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="16"/>
-        <v>683.4</v>
+        <f t="shared" si="18"/>
+        <v>1456.05</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>44077</v>
+        <v>44106</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+        <v>11920</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="17"/>
+        <v>429</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="18"/>
+        <v>2020.59</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>2703.99</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2703.99</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1111,31 +1124,69 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="8"/>
+        <v>10980</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="17"/>
+        <v>268</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="18"/>
+        <v>683.4</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <f>SUM(G16:G24)</f>
-        <v>16842.690000000002</v>
-      </c>
-      <c r="H26" s="10">
-        <f>SUM(H16:H24)</f>
-        <v>16842.690000000002</v>
-      </c>
+      <c r="A26" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="9"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(G18:G26)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H28" s="10">
+        <f>SUM(H18:H26)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/131ee.xlsx
+++ b/sputnik/personal/ee/131ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -172,6 +178,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -529,32 +538,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>44473</v>
+      <c r="A2" s="13">
+        <v>44532</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>18545</v>
+        <v>19745</v>
       </c>
       <c r="D2" s="2">
         <f>C2-C4</f>
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>3124.8</v>
+        <v>3472</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>4491.6000000000004</v>
+        <v>5776.8</v>
       </c>
       <c r="H2" s="10">
-        <v>4491.6000000000004</v>
+        <v>5776.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,49 +572,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>18420</v>
+        <v>20020</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3" si="1">C3-C5</f>
-        <v>510</v>
+        <v>860</v>
       </c>
       <c r="E3" s="2">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>1366.8000000000002</v>
+        <v>2304.8000000000002</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44441</v>
+        <v>44502</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>17915</v>
+        <v>19045</v>
       </c>
       <c r="D4" s="2">
         <f>C4-C6</f>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E4" s="6">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>2728</v>
+        <v>2480</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>3237.2</v>
+        <v>4463.2</v>
       </c>
       <c r="H4" s="10">
-        <v>3237.2</v>
+        <v>4463.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,31 +623,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>17910</v>
+        <v>19160</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5" si="3">C5-C7</f>
-        <v>190</v>
+        <v>740</v>
       </c>
       <c r="E5" s="2">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>509.20000000000005</v>
+        <v>1983.2</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44411</v>
+        <v>44473</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>17365</v>
+        <v>18545</v>
       </c>
       <c r="D6" s="2">
         <f>C6-C8</f>
@@ -653,10 +662,10 @@
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3379.4</v>
+        <v>4491.6000000000004</v>
       </c>
       <c r="H6" s="10">
-        <v>3379.4</v>
+        <v>4491.6000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,49 +674,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>17720</v>
+        <v>18420</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ref="D7" si="5">C7-C9</f>
-        <v>95</v>
+        <v>510</v>
       </c>
       <c r="E7" s="2">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="4"/>
-        <v>254.60000000000002</v>
+        <v>1366.8000000000002</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44349</v>
+        <v>44441</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>16735</v>
+        <v>17915</v>
       </c>
       <c r="D8" s="2">
         <f>C8-C10</f>
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="E8" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>2802.45</v>
+        <v>2728</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>3758.7</v>
+        <v>3237.2</v>
       </c>
       <c r="H8" s="10">
-        <v>3758.7</v>
+        <v>3237.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,49 +725,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>17625</v>
+        <v>17910</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">C9-C11</f>
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>956.24999999999989</v>
+        <v>509.20000000000005</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44320</v>
+        <v>44411</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>16140</v>
+        <v>17365</v>
       </c>
       <c r="D10" s="2">
         <f>C10-C12</f>
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="E10" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>2355</v>
+        <v>3124.8</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>4446</v>
+        <v>3379.4</v>
       </c>
       <c r="H10" s="10">
-        <v>4446</v>
+        <v>3379.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,49 +776,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>17250</v>
+        <v>17720</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="9">C11-C13</f>
-        <v>820</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="8"/>
-        <v>2091</v>
+        <v>254.60000000000002</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44288</v>
+        <v>44349</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>15640</v>
+        <v>16735</v>
       </c>
       <c r="D12" s="2">
         <f>C12-C14</f>
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:F13" si="10">D12*E12</f>
-        <v>2731.8</v>
+        <v>2802.45</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>5205.3</v>
+        <v>3758.7</v>
       </c>
       <c r="H12" s="10">
-        <v>5205.3</v>
+        <v>3758.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,49 +827,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>16430</v>
+        <v>17625</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="11">C13-C15</f>
-        <v>970</v>
+        <v>375</v>
       </c>
       <c r="E13" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="10"/>
-        <v>2473.5</v>
+        <v>956.24999999999989</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44229</v>
+        <v>44320</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>15060</v>
+        <v>16140</v>
       </c>
       <c r="D14" s="2">
         <f>C14-C16</f>
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" si="12">D14*E14</f>
-        <v>3391.2</v>
+        <v>2355</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>6017.7</v>
+        <v>4446</v>
       </c>
       <c r="H14" s="10">
-        <v>6017.7</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,49 +878,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>15460</v>
+        <v>17250</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="13">C15-C17</f>
-        <v>1030</v>
+        <v>820</v>
       </c>
       <c r="E15" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="12"/>
-        <v>2626.5</v>
+        <v>2091</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44229</v>
+        <v>44288</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>14340</v>
+        <v>15640</v>
       </c>
       <c r="D16" s="2">
         <f>C16-C18</f>
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F17" si="14">D16*E16</f>
-        <v>3532.5</v>
+        <v>2731.8</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>6057</v>
+        <v>5205.3</v>
       </c>
       <c r="H16" s="10">
-        <v>6057</v>
+        <v>5205.3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,49 +929,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>14430</v>
+        <v>16430</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="15">C17-C19</f>
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="E17" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="14"/>
-        <v>2524.5</v>
+        <v>2473.5</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>44200</v>
+        <v>44229</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>13590</v>
+        <v>15060</v>
       </c>
       <c r="D18" s="2">
         <f>C18-C20</f>
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="E18" s="6">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>3297</v>
+        <v>3391.2</v>
       </c>
       <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
-        <v>6000</v>
+        <v>6017.7</v>
       </c>
       <c r="H18" s="10">
-        <v>6000</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,49 +980,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>13440</v>
+        <v>15460</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D25" si="17">C19-C21</f>
-        <v>1060</v>
+        <f t="shared" ref="D19" si="17">C19-C21</f>
+        <v>1030</v>
       </c>
       <c r="E19" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="16"/>
-        <v>2703</v>
+        <v>2626.5</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>44167</v>
+      <c r="A20" s="12">
+        <v>44229</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>12890</v>
+        <v>14340</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="17"/>
-        <v>528</v>
+        <f>C20-C22</f>
+        <v>750</v>
       </c>
       <c r="E20" s="6">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F25" si="18">D20*E20</f>
-        <v>2486.88</v>
+        <f t="shared" ref="F20:F21" si="18">D20*E20</f>
+        <v>3532.5</v>
       </c>
       <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
-        <v>4600.83</v>
+        <v>6057</v>
       </c>
       <c r="H20" s="10">
-        <v>4600.83</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,49 +1031,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>12380</v>
+        <v>14430</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="17"/>
-        <v>829</v>
+        <f t="shared" ref="D21" si="19">C21-C23</f>
+        <v>990</v>
       </c>
       <c r="E21" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="18"/>
-        <v>2113.9499999999998</v>
+        <v>2524.5</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>44137</v>
+      <c r="A22" s="12">
+        <v>44200</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>12362</v>
+        <v>13590</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="17"/>
-        <v>442</v>
+        <f>C22-C24</f>
+        <v>700</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="18"/>
-        <v>2081.8200000000002</v>
+        <f t="shared" ref="F22:F23" si="20">D22*E22</f>
+        <v>3297</v>
       </c>
       <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
-        <v>3537.87</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="10">
-        <v>3537.87</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,49 +1082,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>11551</v>
+        <v>13440</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="17"/>
-        <v>571</v>
+        <f t="shared" ref="D23:D29" si="21">C23-C25</f>
+        <v>1060</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="18"/>
-        <v>1456.05</v>
+        <f t="shared" si="20"/>
+        <v>2703</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>44106</v>
+        <v>44167</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>11920</v>
+        <v>12890</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="17"/>
-        <v>429</v>
+        <f t="shared" si="21"/>
+        <v>528</v>
       </c>
       <c r="E24" s="6">
         <v>4.71</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="18"/>
-        <v>2020.59</v>
+        <f t="shared" ref="F24:F29" si="22">D24*E24</f>
+        <v>2486.88</v>
       </c>
       <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
-        <v>2703.99</v>
+        <v>4600.83</v>
       </c>
       <c r="H24" s="10">
-        <v>2703.99</v>
+        <v>4600.83</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1124,37 +1133,50 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>10980</v>
+        <v>12380</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="17"/>
-        <v>268</v>
+        <f t="shared" si="21"/>
+        <v>829</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="18"/>
-        <v>683.4</v>
+        <f t="shared" si="22"/>
+        <v>2113.9499999999998</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>44077</v>
+        <v>44137</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>11491</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+        <v>12362</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="21"/>
+        <v>442</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="22"/>
+        <v>2081.8200000000002</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>3537.87</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3537.87</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1162,31 +1184,120 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>10712</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="8"/>
+        <v>11551</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="21"/>
+        <v>571</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="22"/>
+        <v>1456.05</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="9" t="s">
-        <v>10</v>
+      <c r="A28" s="11">
+        <v>44106</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11920</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="21"/>
+        <v>429</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="22"/>
+        <v>2020.59</v>
       </c>
       <c r="G28" s="10">
-        <f>SUM(G18:G26)</f>
-        <v>16842.690000000002</v>
+        <f>SUM(F28,F29)</f>
+        <v>2703.99</v>
       </c>
       <c r="H28" s="10">
-        <f>SUM(H18:H26)</f>
-        <v>16842.690000000002</v>
+        <v>2703.99</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="9"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10980</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="21"/>
+        <v>268</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="22"/>
+        <v>683.4</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>44077</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>11491</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10712</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(G22:G30)</f>
+        <v>16842.690000000002</v>
+      </c>
+      <c r="H32" s="10">
+        <f>SUM(H22:H30)</f>
+        <v>16842.690000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
